--- a/Job/Propuesta Plantilla de Dashboard.xlsx
+++ b/Job/Propuesta Plantilla de Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if708361_iteso_mx/Documents/ITESO/9no Semestre/PAP Intermediarios Financieros/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if708361_iteso_mx/Documents/ITESO/9no Semestre/PAP Intermediarios Financieros/Urban_Lab_Desarrollo/Job/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{01FDC59D-0ADB-48D3-BEDC-B3317AB505B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{939088BC-5856-4139-9E69-567B828E2470}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{01FDC59D-0ADB-48D3-BEDC-B3317AB505B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F39DD210-9104-48D4-99CC-886712B22E75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9CC0E3A8-7E54-46AA-AAB6-D24EDCE25D3F}"/>
   </bookViews>
@@ -249,9 +249,136 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -263,42 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -326,96 +417,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -734,303 +755,304 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H6" sqref="H6:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="50"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="55" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="56"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="11" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="12"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="55" t="s">
+      <c r="B12" s="45"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="46" t="s">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="47"/>
+      <c r="I13" s="19"/>
     </row>
     <row r="14" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="49"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="49"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="49"/>
-      <c r="K16" s="54"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="49"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="58"/>
     </row>
     <row r="20" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
+      <c r="A20" s="59"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="60"/>
     </row>
     <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
+      <c r="A21" s="59"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="60"/>
     </row>
     <row r="22" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="60"/>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="60"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="60"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="61"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I3"/>
     <mergeCell ref="A19:I25"/>
     <mergeCell ref="A14:B18"/>
     <mergeCell ref="H5:I5"/>
@@ -1042,7 +1064,6 @@
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="A10:B11"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="A1:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1272,18 +1293,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1306,18 +1327,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE07D4F9-1281-4A0A-BB8F-3CE572E67CB0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CE6BE22-A2EB-41F4-BEE2-EC363D242130}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE07D4F9-1281-4A0A-BB8F-3CE572E67CB0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>